--- a/housing.xlsx
+++ b/housing.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\statistics-for-business-analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-excel-stats-for-analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A992F094-391A-49A3-81EE-2D17D5CEF6C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8404FF2E-173F-4A8C-B1FA-F0F1C4C27200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="housing" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="housing" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="48" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -10429,7 +10430,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{003C840F-A626-48A2-8ABF-CA2C7392FC4D}" name="PivotTable19" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{003C840F-A626-48A2-8ABF-CA2C7392FC4D}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -10910,21 +10911,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -10941,19 +10942,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5C64FD-10DB-4810-A63C-9FCE085135F2}">
   <dimension ref="A3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -10975,7 +10976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -10989,7 +10990,7 @@
         <v>4323</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -11003,7 +11004,7 @@
         <v>9403</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -11017,7 +11018,7 @@
         <v>25661</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -11031,7 +11032,7 @@
         <v>25115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -11045,7 +11046,7 @@
         <v>21984</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>17818</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>15686</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>9471</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -11101,7 +11102,7 @@
         <v>8977</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -11115,7 +11116,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -11129,7 +11130,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -11143,7 +11144,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -11155,7 +11156,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -11167,7 +11168,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -11179,7 +11180,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -11191,7 +11192,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
@@ -11203,7 +11204,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -11224,25 +11225,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13318F6F-6960-4BFA-B633-73AFEEA33FC4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B547"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -11283,7 +11298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11324,7 +11339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11365,7 +11380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11406,7 +11421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11447,7 +11462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11488,7 +11503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11529,7 +11544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11570,7 +11585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11611,7 +11626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11652,7 +11667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11693,7 +11708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11734,7 +11749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11775,7 +11790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11816,7 +11831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11857,7 +11872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11898,7 +11913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11939,7 +11954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11980,7 +11995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12021,7 +12036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12062,7 +12077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12103,7 +12118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12144,7 +12159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12185,7 +12200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12226,7 +12241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12267,7 +12282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12308,7 +12323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12349,7 +12364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12390,7 +12405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12431,7 +12446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12472,7 +12487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12513,7 +12528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12554,7 +12569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12595,7 +12610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12636,7 +12651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12677,7 +12692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12718,7 +12733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12759,7 +12774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12800,7 +12815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12841,7 +12856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12882,7 +12897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12923,7 +12938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12964,7 +12979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13005,7 +13020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13046,7 +13061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13087,7 +13102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13128,7 +13143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13169,7 +13184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13210,7 +13225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13251,7 +13266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13292,7 +13307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13333,7 +13348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13374,7 +13389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13415,7 +13430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13456,7 +13471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13497,7 +13512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13538,7 +13553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13579,7 +13594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13620,7 +13635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13661,7 +13676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13702,7 +13717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13743,7 +13758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13784,7 +13799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13825,7 +13840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13866,7 +13881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13907,7 +13922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13948,7 +13963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13989,7 +14004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14030,7 +14045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14071,7 +14086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14112,7 +14127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14153,7 +14168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14194,7 +14209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14235,7 +14250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14276,7 +14291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14317,7 +14332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14358,7 +14373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14399,7 +14414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14440,7 +14455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14481,7 +14496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14522,7 +14537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14563,7 +14578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14604,7 +14619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14645,7 +14660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14686,7 +14701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14727,7 +14742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14768,7 +14783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14809,7 +14824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14850,7 +14865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14891,7 +14906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14932,7 +14947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14973,7 +14988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15014,7 +15029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15055,7 +15070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15096,7 +15111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15137,7 +15152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15178,7 +15193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15219,7 +15234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15260,7 +15275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15301,7 +15316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15342,7 +15357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -15383,7 +15398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -15424,7 +15439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -15465,7 +15480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -15506,7 +15521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -15547,7 +15562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -15588,7 +15603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -15629,7 +15644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -15670,7 +15685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -15711,7 +15726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -15752,7 +15767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -15793,7 +15808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -15834,7 +15849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -15875,7 +15890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -15916,7 +15931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -15957,7 +15972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -15998,7 +16013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -16039,7 +16054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -16080,7 +16095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -16121,7 +16136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -16162,7 +16177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -16203,7 +16218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -16244,7 +16259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -16285,7 +16300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -16326,7 +16341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -16367,7 +16382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -16408,7 +16423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -16449,7 +16464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -16490,7 +16505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -16531,7 +16546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -16572,7 +16587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -16613,7 +16628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -16654,7 +16669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -16695,7 +16710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -16736,7 +16751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -16777,7 +16792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -16818,7 +16833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -16859,7 +16874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -16900,7 +16915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -16941,7 +16956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -16982,7 +16997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -17023,7 +17038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -17064,7 +17079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -17105,7 +17120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -17146,7 +17161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -17187,7 +17202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -17228,7 +17243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -17269,7 +17284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -17310,7 +17325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -17351,7 +17366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -17392,7 +17407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -17433,7 +17448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -17474,7 +17489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -17515,7 +17530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -17556,7 +17571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -17597,7 +17612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -17638,7 +17653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -17679,7 +17694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -17720,7 +17735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -17761,7 +17776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -17802,7 +17817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -17843,7 +17858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -17884,7 +17899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -17925,7 +17940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -17966,7 +17981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -18007,7 +18022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -18048,7 +18063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -18089,7 +18104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -18130,7 +18145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -18171,7 +18186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -18212,7 +18227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -18253,7 +18268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -18294,7 +18309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -18335,7 +18350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -18376,7 +18391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -18417,7 +18432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -18458,7 +18473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -18499,7 +18514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -18540,7 +18555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -18581,7 +18596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -18622,7 +18637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -18663,7 +18678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -18704,7 +18719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -18745,7 +18760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -18786,7 +18801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -18827,7 +18842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -18868,7 +18883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -18909,7 +18924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -18950,7 +18965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -18991,7 +19006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -19032,7 +19047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -19073,7 +19088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -19114,7 +19129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -19155,7 +19170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -19196,7 +19211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -19237,7 +19252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -19278,7 +19293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -19319,7 +19334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -19360,7 +19375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -19401,7 +19416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -19442,7 +19457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -19483,7 +19498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -19524,7 +19539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -19565,7 +19580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -19606,7 +19621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -19647,7 +19662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -19688,7 +19703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -19729,7 +19744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -19770,7 +19785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -19811,7 +19826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -19852,7 +19867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -19893,7 +19908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -19934,7 +19949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -19975,7 +19990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -20016,7 +20031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -20057,7 +20072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -20098,7 +20113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -20139,7 +20154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -20180,7 +20195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -20221,7 +20236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -20262,7 +20277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -20303,7 +20318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -20344,7 +20359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -20385,7 +20400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -20426,7 +20441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -20467,7 +20482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -20508,7 +20523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -20549,7 +20564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -20590,7 +20605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -20631,7 +20646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -20672,7 +20687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -20713,7 +20728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -20754,7 +20769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -20795,7 +20810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -20836,7 +20851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -20877,7 +20892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -20918,7 +20933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -20959,7 +20974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -21000,7 +21015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -21041,7 +21056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -21082,7 +21097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -21123,7 +21138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -21164,7 +21179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -21205,7 +21220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -21246,7 +21261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -21287,7 +21302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -21328,7 +21343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -21369,7 +21384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -21410,7 +21425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -21451,7 +21466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -21492,7 +21507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -21533,7 +21548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -21574,7 +21589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -21615,7 +21630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -21656,7 +21671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -21697,7 +21712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -21738,7 +21753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -21779,7 +21794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -21820,7 +21835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -21861,7 +21876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -21902,7 +21917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -21943,7 +21958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -21984,7 +21999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -22025,7 +22040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -22066,7 +22081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -22107,7 +22122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -22148,7 +22163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -22189,7 +22204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -22230,7 +22245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -22271,7 +22286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -22312,7 +22327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -22353,7 +22368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -22394,7 +22409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -22435,7 +22450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -22476,7 +22491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -22517,7 +22532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -22558,7 +22573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -22599,7 +22614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -22640,7 +22655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -22681,7 +22696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -22722,7 +22737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -22763,7 +22778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -22804,7 +22819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -22845,7 +22860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -22886,7 +22901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -22927,7 +22942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -22968,7 +22983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -23009,7 +23024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -23050,7 +23065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -23091,7 +23106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -23132,7 +23147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -23173,7 +23188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -23214,7 +23229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -23255,7 +23270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -23296,7 +23311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -23337,7 +23352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -23378,7 +23393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -23419,7 +23434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -23460,7 +23475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -23501,7 +23516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -23542,7 +23557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -23583,7 +23598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -23624,7 +23639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -23665,7 +23680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -23706,7 +23721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -23747,7 +23762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -23788,7 +23803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -23829,7 +23844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -23870,7 +23885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -23911,7 +23926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -23952,7 +23967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -23993,7 +24008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -24034,7 +24049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -24075,7 +24090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -24116,7 +24131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -24157,7 +24172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -24198,7 +24213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -24239,7 +24254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -24280,7 +24295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -24321,7 +24336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -24362,7 +24377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -24403,7 +24418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -24444,7 +24459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -24485,7 +24500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -24526,7 +24541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -24567,7 +24582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -24608,7 +24623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -24649,7 +24664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -24690,7 +24705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -24731,7 +24746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -24772,7 +24787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -24813,7 +24828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -24854,7 +24869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -24895,7 +24910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -24936,7 +24951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -24977,7 +24992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -25018,7 +25033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -25059,7 +25074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -25100,7 +25115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -25141,7 +25156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -25182,7 +25197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -25223,7 +25238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -25264,7 +25279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -25305,7 +25320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -25346,7 +25361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -25387,7 +25402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -25428,7 +25443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -25469,7 +25484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -25510,7 +25525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -25551,7 +25566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -25592,7 +25607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -25633,7 +25648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -25674,7 +25689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -25715,7 +25730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -25756,7 +25771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -25797,7 +25812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -25838,7 +25853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -25879,7 +25894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -25920,7 +25935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -25961,7 +25976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -26002,7 +26017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -26043,7 +26058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -26084,7 +26099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -26125,7 +26140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -26166,7 +26181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -26207,7 +26222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -26248,7 +26263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -26289,7 +26304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -26330,7 +26345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -26371,7 +26386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -26412,7 +26427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -26453,7 +26468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -26494,7 +26509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -26535,7 +26550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -26576,7 +26591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -26617,7 +26632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -26658,7 +26673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -26699,7 +26714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -26740,7 +26755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -26781,7 +26796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -26822,7 +26837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -26863,7 +26878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -26904,7 +26919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -26945,7 +26960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -26986,7 +27001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -27027,7 +27042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -27068,7 +27083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -27109,7 +27124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -27150,7 +27165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -27191,7 +27206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -27232,7 +27247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -27273,7 +27288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -27314,7 +27329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -27355,7 +27370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -27396,7 +27411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -27437,7 +27452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -27478,7 +27493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -27519,7 +27534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -27560,7 +27575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -27601,7 +27616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -27642,7 +27657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -27683,7 +27698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -27724,7 +27739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -27765,7 +27780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -27806,7 +27821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -27847,7 +27862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -27888,7 +27903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -27929,7 +27944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -27970,7 +27985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -28011,7 +28026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -28052,7 +28067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -28093,7 +28108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -28134,7 +28149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -28175,7 +28190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
@@ -28216,7 +28231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -28257,7 +28272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -28298,7 +28313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -28339,7 +28354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -28380,7 +28395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
@@ -28421,7 +28436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -28462,7 +28477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -28503,7 +28518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -28544,7 +28559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -28585,7 +28600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -28626,7 +28641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
@@ -28667,7 +28682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
@@ -28708,7 +28723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
@@ -28749,7 +28764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
@@ -28790,7 +28805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
@@ -28831,7 +28846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
@@ -28872,7 +28887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
@@ -28913,7 +28928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
@@ -28954,7 +28969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
@@ -28995,7 +29010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
@@ -29036,7 +29051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
@@ -29077,7 +29092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
@@ -29118,7 +29133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>436</v>
       </c>
@@ -29159,7 +29174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>437</v>
       </c>
@@ -29200,7 +29215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>438</v>
       </c>
@@ -29241,7 +29256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>439</v>
       </c>
@@ -29282,7 +29297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>440</v>
       </c>
@@ -29323,7 +29338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
@@ -29364,7 +29379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>442</v>
       </c>
@@ -29405,7 +29420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
@@ -29446,7 +29461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>444</v>
       </c>
@@ -29487,7 +29502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>445</v>
       </c>
@@ -29528,7 +29543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>446</v>
       </c>
@@ -29569,7 +29584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>447</v>
       </c>
@@ -29610,7 +29625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>448</v>
       </c>
@@ -29651,7 +29666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>449</v>
       </c>
@@ -29692,7 +29707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>450</v>
       </c>
@@ -29733,7 +29748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>451</v>
       </c>
@@ -29774,7 +29789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>452</v>
       </c>
@@ -29815,7 +29830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>453</v>
       </c>
@@ -29856,7 +29871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>454</v>
       </c>
@@ -29897,7 +29912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>455</v>
       </c>
@@ -29938,7 +29953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>456</v>
       </c>
@@ -29979,7 +29994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>457</v>
       </c>
@@ -30020,7 +30035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>458</v>
       </c>
@@ -30061,7 +30076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>459</v>
       </c>
@@ -30102,7 +30117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>460</v>
       </c>
@@ -30143,7 +30158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>461</v>
       </c>
@@ -30184,7 +30199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>462</v>
       </c>
@@ -30225,7 +30240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>463</v>
       </c>
@@ -30266,7 +30281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
@@ -30307,7 +30322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
@@ -30348,7 +30363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
@@ -30389,7 +30404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
@@ -30430,7 +30445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
@@ -30471,7 +30486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
@@ -30512,7 +30527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
@@ -30553,7 +30568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
@@ -30594,7 +30609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>472</v>
       </c>
@@ -30635,7 +30650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>473</v>
       </c>
@@ -30676,7 +30691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>474</v>
       </c>
@@ -30717,7 +30732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>475</v>
       </c>
@@ -30758,7 +30773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>476</v>
       </c>
@@ -30799,7 +30814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>477</v>
       </c>
@@ -30840,7 +30855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>478</v>
       </c>
@@ -30881,7 +30896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
@@ -30922,7 +30937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>480</v>
       </c>
@@ -30963,7 +30978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>481</v>
       </c>
@@ -31004,7 +31019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>482</v>
       </c>
@@ -31045,7 +31060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>483</v>
       </c>
@@ -31086,7 +31101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>484</v>
       </c>
@@ -31127,7 +31142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>485</v>
       </c>
@@ -31168,7 +31183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>486</v>
       </c>
@@ -31209,7 +31224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>487</v>
       </c>
@@ -31250,7 +31265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>488</v>
       </c>
@@ -31291,7 +31306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>489</v>
       </c>
@@ -31332,7 +31347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>490</v>
       </c>
@@ -31373,7 +31388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>491</v>
       </c>
@@ -31414,7 +31429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>492</v>
       </c>
@@ -31455,7 +31470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>493</v>
       </c>
@@ -31496,7 +31511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>494</v>
       </c>
@@ -31537,7 +31552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>495</v>
       </c>
@@ -31578,7 +31593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>496</v>
       </c>
@@ -31619,7 +31634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>497</v>
       </c>
@@ -31660,7 +31675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>498</v>
       </c>
@@ -31701,7 +31716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
@@ -31742,7 +31757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>500</v>
       </c>
@@ -31783,7 +31798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>501</v>
       </c>
@@ -31824,7 +31839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>502</v>
       </c>
@@ -31865,7 +31880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>503</v>
       </c>
@@ -31906,7 +31921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>504</v>
       </c>
@@ -31947,7 +31962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>505</v>
       </c>
@@ -31988,7 +32003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>506</v>
       </c>
@@ -32029,7 +32044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>507</v>
       </c>
@@ -32070,7 +32085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>508</v>
       </c>
@@ -32111,7 +32126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>509</v>
       </c>
@@ -32152,7 +32167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>510</v>
       </c>
@@ -32193,7 +32208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>511</v>
       </c>
@@ -32234,7 +32249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>512</v>
       </c>
@@ -32275,7 +32290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>513</v>
       </c>
@@ -32316,7 +32331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>514</v>
       </c>
@@ -32357,7 +32372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>515</v>
       </c>
@@ -32398,7 +32413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>516</v>
       </c>
@@ -32439,7 +32454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>517</v>
       </c>
@@ -32480,7 +32495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>518</v>
       </c>
@@ -32521,7 +32536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>519</v>
       </c>
@@ -32562,7 +32577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>520</v>
       </c>
@@ -32603,7 +32618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>521</v>
       </c>
@@ -32644,7 +32659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>522</v>
       </c>
@@ -32685,7 +32700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>523</v>
       </c>
@@ -32726,7 +32741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>524</v>
       </c>
@@ -32767,7 +32782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>525</v>
       </c>
@@ -32808,7 +32823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>526</v>
       </c>
@@ -32849,7 +32864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>527</v>
       </c>
@@ -32890,7 +32905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>528</v>
       </c>
@@ -32931,7 +32946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>529</v>
       </c>
@@ -32972,7 +32987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>530</v>
       </c>
@@ -33013,7 +33028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>531</v>
       </c>
@@ -33054,7 +33069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>532</v>
       </c>
@@ -33095,7 +33110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>533</v>
       </c>
@@ -33136,7 +33151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>534</v>
       </c>
@@ -33177,7 +33192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>535</v>
       </c>
@@ -33218,7 +33233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>536</v>
       </c>
@@ -33259,7 +33274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>537</v>
       </c>
@@ -33300,7 +33315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>538</v>
       </c>
@@ -33341,7 +33356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>539</v>
       </c>
@@ -33382,7 +33397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>540</v>
       </c>
@@ -33423,7 +33438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>541</v>
       </c>
@@ -33464,7 +33479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>542</v>
       </c>
@@ -33505,7 +33520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>543</v>
       </c>
@@ -33546,7 +33561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>544</v>
       </c>
@@ -33587,7 +33602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>545</v>
       </c>
@@ -33628,7 +33643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>546</v>
       </c>
